--- a/doc/02_pig.xlsx
+++ b/doc/02_pig.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30860" windowHeight="13060" activeTab="2"/>
+    <workbookView windowWidth="30860" windowHeight="13060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OAuth" sheetId="1" r:id="rId1"/>
     <sheet name="统一认证" sheetId="2" r:id="rId2"/>
     <sheet name="总结" sheetId="4" r:id="rId3"/>
+    <sheet name="如何接入一个 resource server" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,42 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_76ED664ACF4541A9B9D9C826EF0516D9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4678680" y="426720"/>
+          <a:ext cx="7645400" cy="7467600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="176">
   <si>
     <t>常见的和业务相关的 Filter</t>
   </si>
@@ -233,6 +268,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>用来处理 token 相关的端点，比如 /oauth2/token，/oauth2/revoke，/oauth2/introspect，/oauth2/device_authorization，/oauth2/par。</t>
     </r>
     <r>
@@ -461,6 +503,114 @@
   </si>
   <si>
     <t>4. 返回 token 和用户信息</t>
+  </si>
+  <si>
+    <t>配置和修改</t>
+  </si>
+  <si>
+    <t>1. 在管理中心配置 client</t>
+  </si>
+  <si>
+    <t>注意域名，localhost 和 127.0.0.1 是不同的</t>
+  </si>
+  <si>
+    <t>2. 修改前端，如果没有 token，跳转到统一认证中心</t>
+  </si>
+  <si>
+    <t>1. 前端判断是否有 token，如果没有就跳转后端的登录地址</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:7001/oauth2/authorization/custom-oauth</t>
+  </si>
+  <si>
+    <t>2. 后端重定向至统一认证中心</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:9999/auth/oauth2/authorize?response_type=code&amp;client_id=resume&amp;scope=server&amp;state=05TDAoTrN2as4W1uh7NJQ292XrO58oYstHqfwT0oXa8%3D&amp;redirect_uri=http://127.0.0.1:7001/login/oauth2/code/custom-oauth</t>
+  </si>
+  <si>
+    <t>3. 统一认证中心重定向到登录页，用户登录</t>
+  </si>
+  <si>
+    <t>4. 用户登录后重定向到后端请求 token 的地址</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:7001/login/oauth2/code/custom-oauth?code=SQSwBMG4tojkxRp1YgT76vG36a_xc7rZ9_2UjTbG2rebrTUN-mx4eoFGP1R21tQGagu2AlnVV1dEDTEziEmyFDiVtxPTnkDsnxSQJWE586Dp0Gn8PCbEXqXW2FskeSyI&amp;state=05TDAoTrN2as4W1uh7NJQ292XrO58oYstHqfwT0oXa8%3D</t>
+  </si>
+  <si>
+    <t>5. 后端通过 authorization code 请求 token</t>
+  </si>
+  <si>
+    <t>6. 请求到 token 后重定向到前端地址</t>
+  </si>
+  <si>
+    <t>后端配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  security:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    oauth2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      client:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        registration:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          custom-oauth:</t>
+  </si>
+  <si>
+    <t>第一步请求地址的 registration_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            client-id: resume</t>
+  </si>
+  <si>
+    <t>请求 token 的 client id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            client-secret: resume</t>
+  </si>
+  <si>
+    <t>请求 token 的 client secret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            authorization-grant-type: authorization_code</t>
+  </si>
+  <si>
+    <t>认证方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            redirect-uri: http://127.0.0.1:7001/login/oauth2/code/custom-oauth</t>
+  </si>
+  <si>
+    <t>统一认证中心登录后的重定向地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            scope: server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            client-name: Custom OAuth2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        provider:</t>
+  </si>
+  <si>
+    <t>统一认证中心配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            authorization-uri: http://127.0.0.1:9999/auth/oauth2/authorize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            token-uri: http://127.0.0.1:9999/auth/oauth2/token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            user-info-uri: http://127.0.0.1:9999/admin/user/info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            user-name-attribute: code</t>
   </si>
 </sst>
 </file>
@@ -482,18 +632,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -965,7 +1115,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,8 +1245,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1114,26 +1267,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1670,15 +1814,15 @@
   <sheetPr/>
   <dimension ref="F3:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="6" max="6" width="13.9375" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
-    <col min="8" max="8" width="61.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="61.453125" style="5" customWidth="1"/>
     <col min="9" max="9" width="66.1484375" customWidth="1"/>
     <col min="10" max="10" width="63.5390625" customWidth="1"/>
     <col min="11" max="11" width="48.8203125" customWidth="1"/>
@@ -1686,8 +1830,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:8">
-      <c r="G3" s="5"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1697,13 +1841,13 @@
       </c>
     </row>
     <row r="8" spans="7:7">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="6"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I9" t="s">
@@ -1711,8 +1855,8 @@
       </c>
     </row>
     <row r="10" spans="7:9">
-      <c r="G10" s="6"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
@@ -1720,96 +1864,96 @@
       </c>
     </row>
     <row r="11" ht="51" spans="7:11">
-      <c r="G11" s="6"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="51" spans="7:12">
-      <c r="G12" s="6"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="2"/>
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" ht="34" spans="7:9">
-      <c r="G13" s="6"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" ht="34" spans="7:10">
-      <c r="G14" s="6"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" ht="34" spans="7:10">
-      <c r="G15" s="6"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" ht="34" spans="7:10">
-      <c r="G16" s="6"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" ht="34" spans="7:10">
-      <c r="G17" s="6"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="12" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="51" spans="7:10">
-      <c r="G18" s="6"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="12" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="7:10">
-      <c r="G19" s="6"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J19" t="s">
@@ -1817,67 +1961,67 @@
       </c>
     </row>
     <row r="20" ht="34" spans="7:11">
-      <c r="G20" s="6"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="7:11">
-      <c r="G21" s="6"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5"/>
       <c r="K21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="7:11">
-      <c r="G22" s="6"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="5"/>
       <c r="K22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="34" spans="7:9">
-      <c r="G23" s="6"/>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" ht="34" spans="7:9">
-      <c r="G24" s="6"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" ht="34" spans="7:9">
-      <c r="G25" s="6"/>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="7:10">
-      <c r="G26" s="6"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J26" t="s">
@@ -1885,39 +2029,39 @@
       </c>
     </row>
     <row r="27" ht="51" spans="7:10">
-      <c r="G27" s="6"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="12" t="s">
+      <c r="I27" s="2"/>
+      <c r="J27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" ht="34" spans="7:10">
-      <c r="G28" s="6"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" ht="34" spans="7:10">
-      <c r="G30" s="6"/>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I30" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1927,18 +2071,18 @@
       </c>
     </row>
     <row r="36" spans="7:8">
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="7:8">
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1946,7 +2090,7 @@
       <c r="G38" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1962,7 +2106,7 @@
       <c r="G40" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1970,7 +2114,7 @@
       <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1983,10 +2127,10 @@
       </c>
     </row>
     <row r="43" spans="7:9">
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I43" t="s">
@@ -1994,29 +2138,29 @@
       </c>
     </row>
     <row r="44" spans="7:9">
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="7:9">
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
       <c r="I46" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="7:9">
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" t="s">
         <v>61</v>
       </c>
@@ -2033,7 +2177,7 @@
       <c r="G49" t="s">
         <v>64</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2041,10 +2185,10 @@
       <c r="G50" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2052,7 +2196,7 @@
       <c r="G51" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I51" t="s">
@@ -2063,7 +2207,7 @@
       <c r="G52" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2071,7 +2215,7 @@
       <c r="G53" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2079,7 +2223,7 @@
       <c r="G54" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2087,7 +2231,7 @@
       <c r="G55" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2095,7 +2239,7 @@
       <c r="G56" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2103,7 +2247,7 @@
       <c r="G57" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2111,7 +2255,7 @@
       <c r="G58" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2119,10 +2263,10 @@
       <c r="G59" t="s">
         <v>76</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2130,31 +2274,31 @@
       <c r="G60" t="s">
         <v>79</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I60" s="9"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="7:9">
       <c r="G61" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="7:9">
       <c r="G62" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I62" s="9"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="8:8">
-      <c r="H63" s="11"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
@@ -2210,7 +2354,7 @@
   <sheetPr/>
   <dimension ref="D4:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
@@ -2255,17 +2399,17 @@
       </c>
     </row>
     <row r="13" ht="51" spans="8:8">
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" ht="17" spans="8:8">
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" ht="17" spans="8:8">
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2298,7 +2442,7 @@
       </c>
     </row>
     <row r="27" ht="51" spans="11:11">
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2367,7 +2511,7 @@
   <sheetPr/>
   <dimension ref="E4:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -2438,10 +2582,10 @@
       </c>
     </row>
     <row r="15" spans="6:8">
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="H15" t="s">
@@ -2449,15 +2593,15 @@
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
       <c r="H16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
       <c r="H17" t="s">
         <v>132</v>
       </c>
@@ -2511,4 +2655,205 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D2:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="56.8984375" customWidth="1"/>
+    <col min="6" max="6" width="19.921875" customWidth="1"/>
+    <col min="7" max="7" width="40.1015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4">
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" ht="73.25" spans="5:7">
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xlfn.DISPIMG("ID_76ED664ACF4541A9B9D9C826EF0516D9",1)</f>
+        <v>=DISPIMG("ID_76ED664ACF4541A9B9D9C826EF0516D9",1)</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1" display="http://127.0.0.1:7001/oauth2/authorization/custom-oauth"/>
+    <hyperlink ref="F14" r:id="rId2" display="http://127.0.0.1:9999/auth/oauth2/authorize?response_type=code&amp;client_id=resume&amp;scope=server&amp;state=05TDAoTrN2as4W1uh7NJQ292XrO58oYstHqfwT0oXa8%3D&amp;redirect_uri=http://127.0.0.1:7001/login/oauth2/code/custom-oauth"/>
+    <hyperlink ref="F16" r:id="rId3" display="http://127.0.0.1:7001/login/oauth2/code/custom-oauth?code=SQSwBMG4tojkxRp1YgT76vG36a_xc7rZ9_2UjTbG2rebrTUN-mx4eoFGP1R21tQGagu2AlnVV1dEDTEziEmyFDiVtxPTnkDsnxSQJWE586Dp0Gn8PCbEXqXW2FskeSyI&amp;state=05TDAoTrN2as4W1uh7NJQ292XrO58oYstHqfwT0oXa8%3D"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/02_pig.xlsx
+++ b/doc/02_pig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30860" windowHeight="13060" activeTab="3"/>
+    <workbookView windowWidth="31260" windowHeight="13060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OAuth" sheetId="1" r:id="rId1"/>
@@ -634,6 +634,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -644,14 +652,6 @@
       <color rgb="FF6AAB73"/>
       <name val="Courier New"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1115,12 +1115,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,11 +1245,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1276,7 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1822,7 +1825,7 @@
   <cols>
     <col min="6" max="6" width="13.9375" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
-    <col min="8" max="8" width="61.453125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="61.453125" style="6" customWidth="1"/>
     <col min="9" max="9" width="66.1484375" customWidth="1"/>
     <col min="10" max="10" width="63.5390625" customWidth="1"/>
     <col min="11" max="11" width="48.8203125" customWidth="1"/>
@@ -1830,8 +1833,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:8">
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1841,13 +1844,13 @@
       </c>
     </row>
     <row r="8" spans="7:7">
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I9" t="s">
@@ -1855,8 +1858,8 @@
       </c>
     </row>
     <row r="10" spans="7:9">
-      <c r="G10" s="3"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
@@ -1864,96 +1867,96 @@
       </c>
     </row>
     <row r="11" ht="51" spans="7:11">
-      <c r="G11" s="3"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="51" spans="7:12">
-      <c r="G12" s="3"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="3"/>
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" ht="34" spans="7:9">
-      <c r="G13" s="3"/>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" ht="34" spans="7:10">
-      <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" ht="34" spans="7:10">
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" ht="34" spans="7:10">
-      <c r="G16" s="3"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" ht="34" spans="7:10">
-      <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="51" spans="7:10">
-      <c r="G18" s="3"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="4" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="7:10">
-      <c r="G19" s="3"/>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" t="s">
@@ -1961,67 +1964,67 @@
       </c>
     </row>
     <row r="20" ht="34" spans="7:11">
-      <c r="G20" s="3"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="5" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="7:11">
-      <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6"/>
       <c r="K21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="7:11">
-      <c r="G22" s="3"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="6"/>
       <c r="K22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="34" spans="7:9">
-      <c r="G23" s="3"/>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" ht="34" spans="7:9">
-      <c r="G24" s="3"/>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" ht="34" spans="7:9">
-      <c r="G25" s="3"/>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="7:10">
-      <c r="G26" s="3"/>
-      <c r="H26" s="7" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J26" t="s">
@@ -2029,39 +2032,39 @@
       </c>
     </row>
     <row r="27" ht="51" spans="7:10">
-      <c r="G27" s="3"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="4" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" ht="34" spans="7:10">
-      <c r="G28" s="3"/>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" ht="34" spans="7:10">
-      <c r="G30" s="3"/>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I30" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2071,18 +2074,18 @@
       </c>
     </row>
     <row r="36" spans="7:8">
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="7:8">
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2090,7 +2093,7 @@
       <c r="G38" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2098,7 +2101,7 @@
       <c r="G39" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2106,7 +2109,7 @@
       <c r="G40" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2114,7 +2117,7 @@
       <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2122,15 +2125,15 @@
       <c r="G42" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="7:9">
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I43" t="s">
@@ -2138,29 +2141,29 @@
       </c>
     </row>
     <row r="44" spans="7:9">
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
       <c r="I44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="7:9">
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="7:9">
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
       <c r="I47" t="s">
         <v>61</v>
       </c>
@@ -2169,7 +2172,7 @@
       <c r="G48" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2177,7 +2180,7 @@
       <c r="G49" t="s">
         <v>64</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2185,10 +2188,10 @@
       <c r="G50" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2196,7 +2199,7 @@
       <c r="G51" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="I51" t="s">
@@ -2207,7 +2210,7 @@
       <c r="G52" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2215,7 +2218,7 @@
       <c r="G53" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2223,7 +2226,7 @@
       <c r="G54" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2231,7 +2234,7 @@
       <c r="G55" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2239,7 +2242,7 @@
       <c r="G56" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2247,7 +2250,7 @@
       <c r="G57" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2255,7 +2258,7 @@
       <c r="G58" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2263,10 +2266,10 @@
       <c r="G59" t="s">
         <v>76</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2274,31 +2277,31 @@
       <c r="G60" t="s">
         <v>79</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I60" s="2"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="7:9">
       <c r="G61" t="s">
         <v>81</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I61" s="2"/>
+      <c r="I61" s="3"/>
     </row>
     <row r="62" spans="7:9">
       <c r="G62" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I62" s="2"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="8:8">
-      <c r="H63" s="10"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
@@ -2399,17 +2402,17 @@
       </c>
     </row>
     <row r="13" ht="51" spans="8:8">
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" ht="17" spans="8:8">
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" ht="17" spans="8:8">
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2442,7 +2445,7 @@
       </c>
     </row>
     <row r="27" ht="51" spans="11:11">
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2582,10 +2585,10 @@
       </c>
     </row>
     <row r="15" spans="6:8">
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>129</v>
       </c>
       <c r="H15" t="s">
@@ -2593,15 +2596,15 @@
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
       <c r="H16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
       <c r="H17" t="s">
         <v>132</v>
       </c>
@@ -2663,7 +2666,7 @@
   <dimension ref="D2:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2712,7 +2715,7 @@
       <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2725,7 +2728,7 @@
       <c r="E16" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>150</v>
       </c>
     </row>
